--- a/files/EDOF_Optica_press_coverage_2020.xlsx
+++ b/files/EDOF_Optica_press_coverage_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECE\Documents\GitHub\sourangsu.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,9 +391,6 @@
     <t>https://twittersmash.com/technic/das-neue-flache-objektiv-ermoglicht-fokusfreie-kameras-mit-drastisch-reduziertem-gewicht-komplexitat-und-kosten/</t>
   </si>
   <si>
-    <t>Scinexx (Denmark)</t>
-  </si>
-  <si>
     <t>https://www.freepressjournal.in/world/indian-scientist-led-team-develops-camera-that-doesnt-need-focusing</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.osa-opn.org/home/newsroom/2020/march/flat_lens_for_focus-free_imaging/ </t>
+  </si>
+  <si>
+    <t>Scinexx (Germany)</t>
   </si>
 </sst>
 </file>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1619,7 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>116</v>
@@ -1654,10 +1654,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,10 +1666,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,10 +1678,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,10 +1690,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,10 +1702,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,10 +1714,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,10 +1726,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,10 +1738,10 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,10 +1750,10 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,10 +1762,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,10 +1774,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,10 +1785,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
